--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>182855.7092387328</v>
+        <v>202824.5384959618</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484451</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8337698.006240947</v>
+        <v>8381889.928620176</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>315.7090974304645</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>339.8235191548502</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>201.3721416434108</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>110.2564737593037</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>95.40706964937387</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>74.0742867956199</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>163.293878347428</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>166.3197703738364</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,13 +1133,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>404.9349489747447</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>177.318311304985</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.40926378224327</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>166.162536832921</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>389.4258469646077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225802</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930767001</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,10 +1664,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>173.7950029088911</v>
       </c>
       <c r="W14" t="n">
-        <v>133.208388787587</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>50.3082548690715</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>371.8919969011283</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>163.5395542426783</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225816</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,13 +2062,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>267.0860869528069</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>155.9902440393934</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>33.08339867820333</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2257,7 +2257,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>47.61404849749812</v>
       </c>
       <c r="T22" t="n">
-        <v>153.2006427344288</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2485,16 +2485,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>111.5098183264949</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2719,10 +2719,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2731,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>64.90507698037663</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2767,10 +2767,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2950,13 +2950,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>116.0434079398617</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855484</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3199,7 +3199,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170431</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800581</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.0567773522576</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>50.38971918733525</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855484</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225785</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>1265.851063100792</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5785571901424</v>
+        <v>827.708590284215</v>
       </c>
       <c r="D2" t="n">
-        <v>780.709176404991</v>
+        <v>795.8392094990636</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>766.1048686977629</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069707</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069707</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>524.306084180568</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>524.306084180568</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>524.306084180568</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>524.306084180568</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489131</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797694</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756288</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>2050.508772920379</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>2035.406713540094</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>1692.150633585699</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.822568378122</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397443</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106445</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>1007.43192898542</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>1039.505495936744</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>866.9437844199684</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>701.0657916214911</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>531.3077878722285</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>354.6007338339847</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>189.0094588598124</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>200.0427573423713</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>618.2526391103323</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1077.736506291245</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.259348259376</v>
+        <v>1519.99530944889</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674671</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645013</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214717</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512714</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2071.298833832501</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>2071.298833832501</v>
       </c>
       <c r="V4" t="n">
-        <v>1585.813254565969</v>
+        <v>1784.343325702931</v>
       </c>
       <c r="W4" t="n">
-        <v>1585.813254565969</v>
+        <v>1512.316921289223</v>
       </c>
       <c r="X4" t="n">
-        <v>1340.421499899382</v>
+        <v>1266.925166622635</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.00182921349</v>
+        <v>1039.505495936744</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>958.9147199317615</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C5" t="n">
-        <v>924.8126511555888</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D5" t="n">
-        <v>892.9432703704374</v>
+        <v>912.8176076703177</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>1000.521665416493</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>985.4196060362078</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.1738863762653</v>
+        <v>1883.24064273606</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1532.240118618369</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1532.240118618369</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W7" t="n">
-        <v>1532.240118618369</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.304751371526</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2026825953534</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33330181020193</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890116</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851296</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851296</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851296</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851296</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114308</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105286</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105286</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105286</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105286</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>928.491370327452</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.54407162655</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925648</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925648</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925648</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798686</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1359.307243115703</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>996.6902930495296</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>591.8348384605629</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X8" t="n">
-        <v>182.8096374759722</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.5639178160297</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498057</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.487219286448</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330013</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.276515759955</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761166</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230048</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851296</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897055</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851829</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842806</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716307</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114682</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503481</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295688</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.77193545851296</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>36.77193545851296</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>36.77193545851296</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>36.77193545851296</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851296</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851296</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851296</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851296</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851296</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851296</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.981817226474</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255718</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683216</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908998</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925648</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925648</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.17895163102</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929016</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507471</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.625135760577</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>846.669627631007</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>574.6432232172986</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>329.251468550711</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>101.8317978648193</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168568</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5057,34 +5057,34 @@
         <v>3794.949149351337</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344105</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.6447693027</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>4170.462783046459</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
         <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,10 +5224,10 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
         <v>2170.843970372791</v>
@@ -5242,7 +5242,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
-        <v>521.7292312988369</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1356.079523257015</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="L14" t="n">
-        <v>1356.079523257015</v>
+        <v>1607.050630386892</v>
       </c>
       <c r="M14" t="n">
-        <v>1356.079523257015</v>
+        <v>1607.050630386892</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2732.781613823339</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4616.731606928796</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4357.509304245813</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987273</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819522</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834749</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342122</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959684</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111523</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5440,10 +5440,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5479,7 +5479,7 @@
         <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177145</v>
+        <v>998.0484328177147</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.514395351991</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
         <v>1649.322926419992</v>
@@ -5501,64 +5501,64 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874949</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>386.2829206107588</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397503</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2006.146234892153</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4493.924657556611</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>4131.307707490438</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3726.452252901471</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3307.309789480782</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2899.023665780435</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580465</v>
+        <v>1035.891962983371</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412714</v>
+        <v>863.3302514665961</v>
       </c>
       <c r="D19" t="n">
-        <v>608.792309442794</v>
+        <v>697.4522586681188</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935313</v>
+        <v>527.6942549188561</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>350.9872008806124</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111577</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458056</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
-        <v>458.0741164169412</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849023</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
-        <v>1778.02666852346</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O19" t="n">
         <v>2197.695917749241</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1473.102336368946</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162925</v>
+        <v>1227.710581702358</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1227.710581702358</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689265</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047133</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205428</v>
+        <v>944.8298656847294</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2639626146356</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>385.866131237899</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111506</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S20" t="n">
-        <v>4803.381259633332</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.381259633332</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174173</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1175.794137292997</v>
+        <v>917.3761843184092</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.232425776222</v>
+        <v>744.8144728016341</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3544329777443</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="E22" t="n">
-        <v>667.5964292284815</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902377</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2665.300588101593</v>
       </c>
       <c r="T22" t="n">
-        <v>2399.406093907741</v>
+        <v>2419.421141680048</v>
       </c>
       <c r="U22" t="n">
-        <v>2399.406093907741</v>
+        <v>2140.988140933153</v>
       </c>
       <c r="V22" t="n">
-        <v>2112.450585778172</v>
+        <v>1854.032632803584</v>
       </c>
       <c r="W22" t="n">
-        <v>1840.424181364463</v>
+        <v>1582.006228389876</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.032426697876</v>
+        <v>1336.614473723288</v>
       </c>
       <c r="Y22" t="n">
-        <v>1367.612756011984</v>
+        <v>1109.194803037396</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,10 +5996,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O23" t="n">
         <v>3569.079287993933</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>811.754677688392</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238769</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>307.7236983989674</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>167.8215240893419</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6449,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937638</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>790.3368563937638</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.155475112751</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.314973373139</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,28 +6923,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7017,25 +7017,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736203</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.556342075143</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258802</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.0912842876364</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134641</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7099,7 +7099,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,64 +7160,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M39" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N39" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O39" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
         <v>780.1951658309357</v>
@@ -7391,19 +7391,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7436,10 +7436,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
         <v>4550.100609912873</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.996046390395</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405614</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420841</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928213</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545775</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804052</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7652,43 +7652,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136696</v>
@@ -7725,7 +7725,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
         <v>1107.588885023173</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903957</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736206</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324585</v>
+        <v>632.5563420751433</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831958</v>
+        <v>462.7983383258806</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876368</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134643</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>479.9987875054355</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854612</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274589</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314119</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.426309209013539</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314119</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.649193231412</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314119</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662665</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314118</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314119</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476429274</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>329.49175150785</v>
+        <v>329.4917515078464</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>429.2861157754766</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>565.7116107953238</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N17" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9717,22 +9717,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03656536949893052</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,10 +10428,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,10 +10665,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,10 +11139,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11373,10 +11373,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.5463146682411</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>267.5985112554899</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>11.38105307846928</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>185.1957776566206</v>
       </c>
       <c r="W14" t="n">
-        <v>267.5985112554901</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>50.14457787893041</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>268.0111327346216</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627251</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.220053416764529</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>267.5985112554908</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.73195639979937</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>110.0349065174852</v>
       </c>
       <c r="T22" t="n">
-        <v>90.22000922290047</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>63.43016517136647</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>22.86827275269476</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>48.17580493063079</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142716</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142714</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>699705.4930332087</v>
+        <v>713312.4642455711</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>699705.4930332087</v>
+        <v>717165.5959139429</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>702243.4197278231</v>
+        <v>717165.5959139429</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>709529.6891516605</v>
+        <v>709529.6891516603</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>709529.6891516605</v>
+        <v>709529.6891516604</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739472.652826227</v>
+        <v>739472.6528262269</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>739472.6528262268</v>
+        <v>739472.6528262269</v>
       </c>
     </row>
     <row r="16">
@@ -26317,10 +26317,10 @@
         <v>281477.3429424645</v>
       </c>
       <c r="D2" t="n">
-        <v>281477.3429424644</v>
+        <v>281477.3429424645</v>
       </c>
       <c r="E2" t="n">
-        <v>265400.0464351302</v>
+        <v>265400.0464351301</v>
       </c>
       <c r="F2" t="n">
         <v>265400.0464351301</v>
@@ -26332,13 +26332,13 @@
         <v>265400.0464351301</v>
       </c>
       <c r="I2" t="n">
-        <v>276600.23167211</v>
+        <v>276600.2316721099</v>
       </c>
       <c r="J2" t="n">
-        <v>276600.23167211</v>
+        <v>276600.2316721099</v>
       </c>
       <c r="K2" t="n">
-        <v>276600.23167211</v>
+        <v>276600.2316721099</v>
       </c>
       <c r="L2" t="n">
         <v>276600.2316721099</v>
@@ -26353,7 +26353,7 @@
         <v>276600.2316721099</v>
       </c>
       <c r="P2" t="n">
-        <v>276600.2316721099</v>
+        <v>276600.23167211</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039036</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390602</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200347</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520267</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.71563283958</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856138</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784464</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510546</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104671</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>182320.3813513279</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="D4" t="n">
-        <v>206540.0080518351</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>91036.5962575257</v>
+        <v>91036.59625752563</v>
       </c>
       <c r="F4" t="n">
-        <v>91036.59625752569</v>
+        <v>91036.59625752564</v>
       </c>
       <c r="G4" t="n">
         <v>91036.59625752567</v>
       </c>
       <c r="H4" t="n">
-        <v>91036.59625752569</v>
+        <v>91036.59625752567</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.44464875292</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
         <v>94878.44464875289</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814204</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846984</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764752</v>
@@ -26485,7 +26485,7 @@
         <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26509,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132231.8652916857</v>
+        <v>-177504.431170909</v>
       </c>
       <c r="C6" t="n">
-        <v>9959.43536802422</v>
+        <v>16034.73874035767</v>
       </c>
       <c r="D6" t="n">
-        <v>2381.257270155969</v>
+        <v>33375.28311426366</v>
       </c>
       <c r="E6" t="n">
-        <v>-122955.1858520697</v>
+        <v>-60967.52586495408</v>
       </c>
       <c r="F6" t="n">
-        <v>100844.107899957</v>
+        <v>100767.5493451601</v>
       </c>
       <c r="G6" t="n">
-        <v>100844.1078999569</v>
+        <v>100767.54934516</v>
       </c>
       <c r="H6" t="n">
-        <v>100844.1078999569</v>
+        <v>100767.54934516</v>
       </c>
       <c r="I6" t="n">
-        <v>85638.83278472512</v>
+        <v>85615.60844534222</v>
       </c>
       <c r="J6" t="n">
-        <v>-7010.916927425642</v>
+        <v>-56627.50540743199</v>
       </c>
       <c r="K6" t="n">
-        <v>104003.5484175645</v>
+        <v>90166.31551033718</v>
       </c>
       <c r="L6" t="n">
-        <v>95055.93732905397</v>
+        <v>103980.3240781818</v>
       </c>
       <c r="M6" t="n">
-        <v>-82787.43819290261</v>
+        <v>-31009.6205348215</v>
       </c>
       <c r="N6" t="n">
-        <v>104003.5484175645</v>
+        <v>103980.3240781819</v>
       </c>
       <c r="O6" t="n">
-        <v>104003.5484175645</v>
+        <v>103980.3240781818</v>
       </c>
       <c r="P6" t="n">
-        <v>104003.5484175645</v>
+        <v>103980.3240781819</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314119</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052064</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130758</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282528</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052064</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130758</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825277</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052064</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130758</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282528</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>113.7278999628233</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>64.37974330849289</v>
       </c>
     </row>
     <row r="3">
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>42.04851031391851</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>173.8294792889701</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>326.6295051306848</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>326.7326132474571</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>112.3547923919977</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>117.7661826744375</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>10.01608981173769</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>226.8849511583581</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125.491168749554</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>479.9987875054355</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854612</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274589</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314119</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.426309209013539</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314119</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.649193231412</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314119</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662665</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314118</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314119</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476429274</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>329.49175150785</v>
+        <v>329.4917515078464</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>429.2861157754766</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>565.7116107953238</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N17" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,13 +36364,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36437,22 +36437,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03656536949893052</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,10 +37148,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,10 +37859,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.5463146682411</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
